--- a/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CSSECDV\CSSECDV-Case-Study-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3A98B0-0A51-4B17-B79F-83F0A0D11B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB63C2B-AC35-4F60-8E50-33369207787E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Security Issue</t>
   </si>
@@ -69,14 +69,38 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Unmasked password login field.</t>
-  </si>
-  <si>
     <t>Login.java</t>
   </si>
   <si>
     <t>Password needs to be masked to prevent the vulnerabilities mentioned
 Change the password field from javax.swing.JTextField(); to javax.swing.JPasswordField();</t>
+  </si>
+  <si>
+    <t>Sets the fields to an empty string after clicking login button: frame.loginPnl.usernameFld.setText("");
+frame.loginPnl.passwordFld.setText("");</t>
+  </si>
+  <si>
+    <t>Allows unauthorized user/s to relogin with the previous credentials of a recent user</t>
+  </si>
+  <si>
+    <t>Not clearing login fields</t>
+  </si>
+  <si>
+    <t>Allows unauthorized user/s to login without having the need to input valid user credentials</t>
+  </si>
+  <si>
+    <t>Unmasked password login field</t>
+  </si>
+  <si>
+    <t>No login verification</t>
+  </si>
+  <si>
+    <t>Login.java, Main.java</t>
+  </si>
+  <si>
+    <t>Added event listener to login button that checks if the inputted username and password matches an existing account stored in the database. 
+Method implemented:
+public boolean validateLogin(String username, String password)</t>
   </si>
 </sst>
 </file>
@@ -267,18 +291,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -291,16 +303,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,7 +647,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -631,231 +655,247 @@
     <col min="1" max="1" width="7.69921875" customWidth="1"/>
     <col min="2" max="2" width="40.796875" customWidth="1"/>
     <col min="3" max="3" width="20.796875" customWidth="1"/>
-    <col min="4" max="4" width="40.796875" customWidth="1"/>
+    <col min="4" max="4" width="65.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CSSECDV\CSSECDV-Case-Study-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB63C2B-AC35-4F60-8E50-33369207787E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD40FC6-F238-4658-A11B-D628490631C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Security Issue</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Register.java</t>
-  </si>
-  <si>
-    <t>Unmasked password registration fields.</t>
   </si>
   <si>
     <t xml:space="preserve">Shoulder surfing when a user is typing his/her password:
@@ -66,18 +63,11 @@
 Change from password = new javax.swing.JTextField(); to password = new javax.swing.JPasswordField();</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Login.java</t>
   </si>
   <si>
     <t>Password needs to be masked to prevent the vulnerabilities mentioned
 Change the password field from javax.swing.JTextField(); to javax.swing.JPasswordField();</t>
-  </si>
-  <si>
-    <t>Sets the fields to an empty string after clicking login button: frame.loginPnl.usernameFld.setText("");
-frame.loginPnl.passwordFld.setText("");</t>
   </si>
   <si>
     <t>Allows unauthorized user/s to relogin with the previous credentials of a recent user</t>
@@ -101,31 +91,45 @@
     <t>Added event listener to login button that checks if the inputted username and password matches an existing account stored in the database. 
 Method implemented:
 public boolean validateLogin(String username, String password)</t>
+  </si>
+  <si>
+    <t>Not clearing registration fields</t>
+  </si>
+  <si>
+    <t>Unmasked password registration fields</t>
+  </si>
+  <si>
+    <t>Usernames are case-sensitive</t>
+  </si>
+  <si>
+    <t>Multiple users with the same username but in different cases can exist</t>
+  </si>
+  <si>
+    <t>Use toLowerCase() on the user name value before storing in the database</t>
+  </si>
+  <si>
+    <t>Exposes username of the recently registered user</t>
+  </si>
+  <si>
+    <t>Sets the fields to an empty string after clicking login button: 
+frame.loginPnl.usernameFld.setText("");
+frame.loginPnl.passwordFld.setText("");</t>
+  </si>
+  <si>
+    <t>Sets the fields to an empty string after clicking register button: 
+frame.registerPnl.usernameFld.setText("");
+frame.registerPnl.passwordFld.setText("");
+frame.registerPnl.confpassFld.setText("");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,36 +293,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -641,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ADE879-4575-BE42-ACF5-88079327BE13}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -660,242 +655,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CSSECDV\CSSECDV-Case-Study-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD40FC6-F238-4658-A11B-D628490631C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57338099-68C0-40A4-8F4C-E7D2CDFBF085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>Security Issue</t>
   </si>
@@ -120,6 +120,25 @@
 frame.registerPnl.usernameFld.setText("");
 frame.registerPnl.passwordFld.setText("");
 frame.registerPnl.confpassFld.setText("");</t>
+  </si>
+  <si>
+    <t>Password is stored unencrypted</t>
+  </si>
+  <si>
+    <t>Register.java, Main.java</t>
+  </si>
+  <si>
+    <t>Hash passwords first before storing in the database
+Method implemented:
+public String hashPassword(String password)</t>
+  </si>
+  <si>
+    <t>Passwords of users can be seen in plaintext format:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passwords of users can be seen in plaintext format:
+- Stolen identity 
+- Unauthorized access </t>
   </si>
 </sst>
 </file>
@@ -642,7 +661,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -773,14 +792,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">

--- a/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CSSECDV\CSSECDV-Case-Study-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57338099-68C0-40A4-8F4C-E7D2CDFBF085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75BD2BB-A1C6-4F85-9487-0ED116EFD7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Security Issue</t>
   </si>
@@ -122,9 +122,6 @@
 frame.registerPnl.confpassFld.setText("");</t>
   </si>
   <si>
-    <t>Password is stored unencrypted</t>
-  </si>
-  <si>
     <t>Register.java, Main.java</t>
   </si>
   <si>
@@ -133,12 +130,12 @@
 public String hashPassword(String password)</t>
   </si>
   <si>
-    <t>Passwords of users can be seen in plaintext format:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Passwords of users can be seen in plaintext format:
 - Stolen identity 
 - Unauthorized access </t>
+  </si>
+  <si>
+    <t>User passwords are stored unencrypted</t>
   </si>
 </sst>
 </file>
@@ -658,10 +655,10 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -797,16 +794,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">

--- a/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CSSECDV\CSSECDV-Case-Study-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\cpusched\CSSECDV-Case-Study-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75BD2BB-A1C6-4F85-9487-0ED116EFD7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735C074-B5DC-4450-865D-5A3CE27766BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Security Issue</t>
   </si>
@@ -136,6 +136,19 @@
   </si>
   <si>
     <t>User passwords are stored unencrypted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Account Lockout Mechanism </t>
+  </si>
+  <si>
+    <t>Main.java, Login.Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lockout mechanism was implemented where after 5 failed login attempts, the user is blocked from making another attemp for 5 minutes. 
+ The validateLogin function was modified to include a failed login attempt counter.  </t>
+  </si>
+  <si>
+    <t>Brute Force Attacks</t>
   </si>
 </sst>
 </file>
@@ -658,19 +671,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" customWidth="1"/>
-    <col min="4" max="4" width="65.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.796875" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="65.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -687,7 +700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -704,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -721,7 +734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -738,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -755,7 +768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -772,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -789,7 +802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -806,16 +819,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -824,7 +845,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -833,7 +854,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -842,7 +863,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -851,7 +872,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -860,7 +881,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -869,7 +890,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -878,7 +899,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -887,7 +908,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -896,7 +917,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -905,7 +926,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -914,7 +935,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>20</v>
       </c>

--- a/CSSECDV - Case Study 1 Project Documentation.xlsx
+++ b/CSSECDV - Case Study 1 Project Documentation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\cpusched\CSSECDV-Case-Study-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CSSECDV\CSSECDV-Case-Study-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E735C074-B5DC-4450-865D-5A3CE27766BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE62BF-935B-4FC3-8BBF-9DD6DBC24DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5B6E951-E296-6A45-B171-4DEF88B6BA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Security Issue</t>
   </si>
@@ -138,9 +138,6 @@
     <t>User passwords are stored unencrypted</t>
   </si>
   <si>
-    <t xml:space="preserve">No Account Lockout Mechanism </t>
-  </si>
-  <si>
     <t>Main.java, Login.Java</t>
   </si>
   <si>
@@ -148,7 +145,48 @@
  The validateLogin function was modified to include a failed login attempt counter.  </t>
   </si>
   <si>
-    <t>Brute Force Attacks</t>
+    <t xml:space="preserve">Sets the fields to an empty string after clicking login button: 
+frame.loginPnl.usernameFld.setText("");
+frame.loginPnl.passwordFld.setText("");
+</t>
+  </si>
+  <si>
+    <t>No forget password feature</t>
+  </si>
+  <si>
+    <t>Not sanitizing inputs</t>
+  </si>
+  <si>
+    <t>Can be vulnerable to command injection attacks</t>
+  </si>
+  <si>
+    <t>Sanitizes input fields by removing script related characters
+input = input.replaceAll("[&lt;&gt;\"'%;()&amp;]", "");</t>
+  </si>
+  <si>
+    <t>Can cause permanent account lockout and lose data associated with the user account</t>
+  </si>
+  <si>
+    <t>Implemented a forget password feature that will notify the IT team to reach out to the person with the inputted username</t>
+  </si>
+  <si>
+    <t>Applicable Screenshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No account lockout mechanism </t>
+  </si>
+  <si>
+    <t>Login is vulnerable to brute force attacks</t>
+  </si>
+  <si>
+    <t>Weak username and password standards</t>
+  </si>
+  <si>
+    <t>Having super simple usernames and passwords are vulnerable to brute force attacks as they can easily be guessed</t>
+  </si>
+  <si>
+    <t>Usernames are required to be alphanumerical only, containing at least 1 letter, and having a length of at least 6 characters
+Passwords are required to contain at least 1 uppercase, 1 lowercase, 1 digit, 1 symbol, and having a length of at least 8 characters</t>
   </si>
 </sst>
 </file>
@@ -366,6 +404,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>86990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3218328</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1842292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAB7D75-07D2-539C-B37E-38BC40FDEE30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14944165" y="320072"/>
+          <a:ext cx="3128681" cy="1755302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35861</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3980330</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE74C2B9-D204-6220-E41B-F9315FC6BC55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14890379" y="9523439"/>
+          <a:ext cx="3944469" cy="1188624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>35860</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4060639</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1738995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B6272F-DBDA-8628-2EC9-8256348C5B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14890378" y="10838329"/>
+          <a:ext cx="4024779" cy="1577631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71716</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2689411</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1487633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44CB6C6-560F-16E3-EDE2-FEA8EBCC0682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14926234" y="7006991"/>
+          <a:ext cx="2617695" cy="1482077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>49363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3774142</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1504207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA4F6CF-0BC4-F8E0-F7D6-AFBD83FAE59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14935201" y="13621928"/>
+          <a:ext cx="3693459" cy="1454844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56158</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4222337</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2371169</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D674728F-59C5-01E7-918A-CF3FEEE4DECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14910676" y="4061013"/>
+          <a:ext cx="4166179" cy="2164980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,25 +972,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33ADE879-4575-BE42-ACF5-88079327BE13}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="65.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.75" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="65.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.69921875" customWidth="1"/>
+    <col min="6" max="6" width="57.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -699,8 +1007,11 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -717,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -734,7 +1045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="205.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -751,7 +1062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -768,7 +1079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -785,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -802,7 +1113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -819,51 +1130,75 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -872,7 +1207,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -881,7 +1216,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -890,7 +1225,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -899,7 +1234,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -908,7 +1243,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -917,7 +1252,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -926,7 +1261,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -935,7 +1270,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -946,5 +1281,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>